--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lrpap1-Sorl1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lrpap1-Sorl1.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.927655000000001</v>
+        <v>8.080435</v>
       </c>
       <c r="H2">
-        <v>23.782965</v>
+        <v>24.241305</v>
       </c>
       <c r="I2">
-        <v>0.1200556835465435</v>
+        <v>0.1496988574979475</v>
       </c>
       <c r="J2">
-        <v>0.1200556835465435</v>
+        <v>0.1496988574979476</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1788416666666666</v>
+        <v>0.060105</v>
       </c>
       <c r="N2">
-        <v>0.5365249999999999</v>
+        <v>0.180315</v>
       </c>
       <c r="O2">
-        <v>0.005632743940253071</v>
+        <v>0.001098708471132188</v>
       </c>
       <c r="P2">
-        <v>0.00563274394025307</v>
+        <v>0.001098708471132188</v>
       </c>
       <c r="Q2">
-        <v>1.417795032958333</v>
+        <v>0.485674545675</v>
       </c>
       <c r="R2">
-        <v>12.760155296625</v>
+        <v>4.371070911075</v>
       </c>
       <c r="S2">
-        <v>0.0006762429239897333</v>
+        <v>0.0001644754028518052</v>
       </c>
       <c r="T2">
-        <v>0.0006762429239897331</v>
+        <v>0.0001644754028518053</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.927655000000001</v>
+        <v>8.080435</v>
       </c>
       <c r="H3">
-        <v>23.782965</v>
+        <v>24.241305</v>
       </c>
       <c r="I3">
-        <v>0.1200556835465435</v>
+        <v>0.1496988574979475</v>
       </c>
       <c r="J3">
-        <v>0.1200556835465435</v>
+        <v>0.1496988574979476</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>0.4282</v>
       </c>
       <c r="O3">
-        <v>0.004495486613329044</v>
+        <v>0.002609139380189131</v>
       </c>
       <c r="P3">
-        <v>0.004495486613329044</v>
+        <v>0.002609139380189131</v>
       </c>
       <c r="Q3">
-        <v>1.131540623666667</v>
+        <v>1.153347422333333</v>
       </c>
       <c r="R3">
-        <v>10.183865613</v>
+        <v>10.380126801</v>
       </c>
       <c r="S3">
-        <v>0.0005397087182375544</v>
+        <v>0.0003905851842672158</v>
       </c>
       <c r="T3">
-        <v>0.0005397087182375544</v>
+        <v>0.0003905851842672159</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.927655000000001</v>
+        <v>8.080435</v>
       </c>
       <c r="H4">
-        <v>23.782965</v>
+        <v>24.241305</v>
       </c>
       <c r="I4">
-        <v>0.1200556835465435</v>
+        <v>0.1496988574979475</v>
       </c>
       <c r="J4">
-        <v>0.1200556835465435</v>
+        <v>0.1496988574979476</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.674834333333334</v>
+        <v>33.23770833333333</v>
       </c>
       <c r="N4">
-        <v>23.024503</v>
+        <v>99.71312499999999</v>
       </c>
       <c r="O4">
-        <v>0.2417242994279645</v>
+        <v>0.6075792647342859</v>
       </c>
       <c r="P4">
-        <v>0.2417242994279645</v>
+        <v>0.607579264734286</v>
       </c>
       <c r="Q4">
-        <v>60.84343877682168</v>
+        <v>268.5751417364583</v>
       </c>
       <c r="R4">
-        <v>547.5909489913951</v>
+        <v>2417.176275628125</v>
       </c>
       <c r="S4">
-        <v>0.02902037599763364</v>
+        <v>0.0909539217701656</v>
       </c>
       <c r="T4">
-        <v>0.02902037599763364</v>
+        <v>0.09095392177016565</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.927655000000001</v>
+        <v>8.080435</v>
       </c>
       <c r="H5">
-        <v>23.782965</v>
+        <v>24.241305</v>
       </c>
       <c r="I5">
-        <v>0.1200556835465435</v>
+        <v>0.1496988574979475</v>
       </c>
       <c r="J5">
-        <v>0.1200556835465435</v>
+        <v>0.1496988574979476</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3240953333333333</v>
+        <v>0.1028146666666667</v>
       </c>
       <c r="N5">
-        <v>0.972286</v>
+        <v>0.3084440000000001</v>
       </c>
       <c r="O5">
-        <v>0.01020761022262317</v>
+        <v>0.001879433411917459</v>
       </c>
       <c r="P5">
-        <v>0.01020761022262317</v>
+        <v>0.00187943341191746</v>
       </c>
       <c r="Q5">
-        <v>2.569315989776667</v>
+        <v>0.8307872310466667</v>
       </c>
       <c r="R5">
-        <v>23.12384390799</v>
+        <v>7.477085079420001</v>
       </c>
       <c r="S5">
-        <v>0.00122548162265371</v>
+        <v>0.0002813490345075131</v>
       </c>
       <c r="T5">
-        <v>0.00122548162265371</v>
+        <v>0.0002813490345075132</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.927655000000001</v>
+        <v>8.080435</v>
       </c>
       <c r="H6">
-        <v>23.782965</v>
+        <v>24.241305</v>
       </c>
       <c r="I6">
-        <v>0.1200556835465435</v>
+        <v>0.1496988574979475</v>
       </c>
       <c r="J6">
-        <v>0.1200556835465435</v>
+        <v>0.1496988574979476</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.42985866666667</v>
+        <v>21.161778</v>
       </c>
       <c r="N6">
-        <v>70.28957600000001</v>
+        <v>63.485334</v>
       </c>
       <c r="O6">
-        <v>0.7379398597958302</v>
+        <v>0.3868334540024753</v>
       </c>
       <c r="P6">
-        <v>0.7379398597958301</v>
+        <v>0.3868334540024753</v>
       </c>
       <c r="Q6">
-        <v>185.7438362080934</v>
+        <v>170.99637161343</v>
       </c>
       <c r="R6">
-        <v>1671.69452587284</v>
+        <v>1538.96734452087</v>
       </c>
       <c r="S6">
-        <v>0.08859387428402889</v>
+        <v>0.05790852610615538</v>
       </c>
       <c r="T6">
-        <v>0.08859387428402887</v>
+        <v>0.05790852610615541</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>38.941596</v>
       </c>
       <c r="I7">
-        <v>0.1965759915205419</v>
+        <v>0.2404784903431001</v>
       </c>
       <c r="J7">
-        <v>0.1965759915205419</v>
+        <v>0.2404784903431001</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.1788416666666666</v>
+        <v>0.060105</v>
       </c>
       <c r="N7">
-        <v>0.5365249999999999</v>
+        <v>0.180315</v>
       </c>
       <c r="O7">
-        <v>0.005632743940253071</v>
+        <v>0.001098708471132188</v>
       </c>
       <c r="P7">
-        <v>0.00563274394025307</v>
+        <v>0.001098708471132188</v>
       </c>
       <c r="Q7">
-        <v>2.3214599771</v>
+        <v>0.7801948758600001</v>
       </c>
       <c r="R7">
-        <v>20.8931397939</v>
+        <v>7.021753882740001</v>
       </c>
       <c r="S7">
-        <v>0.001107262225036572</v>
+        <v>0.0002642157544650442</v>
       </c>
       <c r="T7">
-        <v>0.001107262225036571</v>
+        <v>0.0002642157544650442</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>38.941596</v>
       </c>
       <c r="I8">
-        <v>0.1965759915205419</v>
+        <v>0.2404784903431001</v>
       </c>
       <c r="J8">
-        <v>0.1965759915205419</v>
+        <v>0.2404784903431001</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>0.4282</v>
       </c>
       <c r="O8">
-        <v>0.004495486613329044</v>
+        <v>0.002609139380189131</v>
       </c>
       <c r="P8">
-        <v>0.004495486613329044</v>
+        <v>0.002609139380189131</v>
       </c>
       <c r="Q8">
         <v>1.8527546008</v>
@@ -948,10 +948,10 @@
         <v>16.6747914072</v>
       </c>
       <c r="S8">
-        <v>0.0008837047383824799</v>
+        <v>0.0006274418992426141</v>
       </c>
       <c r="T8">
-        <v>0.0008837047383824796</v>
+        <v>0.0006274418992426141</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>38.941596</v>
       </c>
       <c r="I9">
-        <v>0.1965759915205419</v>
+        <v>0.2404784903431001</v>
       </c>
       <c r="J9">
-        <v>0.1965759915205419</v>
+        <v>0.2404784903431001</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.674834333333334</v>
+        <v>33.23770833333333</v>
       </c>
       <c r="N9">
-        <v>23.024503</v>
+        <v>99.71312499999999</v>
       </c>
       <c r="O9">
-        <v>0.2417242994279645</v>
+        <v>0.6075792647342859</v>
       </c>
       <c r="P9">
-        <v>0.2417242994279645</v>
+        <v>0.607579264734286</v>
       </c>
       <c r="Q9">
-        <v>99.62343265853202</v>
+        <v>431.4431366275001</v>
       </c>
       <c r="R9">
-        <v>896.6108939267882</v>
+        <v>3882.9882296475</v>
       </c>
       <c r="S9">
-        <v>0.04751719383466049</v>
+        <v>0.1461097443470719</v>
       </c>
       <c r="T9">
-        <v>0.04751719383466049</v>
+        <v>0.1461097443470719</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>38.941596</v>
       </c>
       <c r="I10">
-        <v>0.1965759915205419</v>
+        <v>0.2404784903431001</v>
       </c>
       <c r="J10">
-        <v>0.1965759915205419</v>
+        <v>0.2404784903431001</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3240953333333333</v>
+        <v>0.1028146666666667</v>
       </c>
       <c r="N10">
-        <v>0.972286</v>
+        <v>0.3084440000000001</v>
       </c>
       <c r="O10">
-        <v>0.01020761022262317</v>
+        <v>0.001879433411917459</v>
       </c>
       <c r="P10">
-        <v>0.01020761022262317</v>
+        <v>0.00187943341191746</v>
       </c>
       <c r="Q10">
-        <v>4.206929845384001</v>
+        <v>1.334589070736</v>
       </c>
       <c r="R10">
-        <v>37.862368608456</v>
+        <v>12.011301636624</v>
       </c>
       <c r="S10">
-        <v>0.00200657110056737</v>
+        <v>0.0004519633095982925</v>
       </c>
       <c r="T10">
-        <v>0.002006571100567369</v>
+        <v>0.0004519633095982926</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>38.941596</v>
       </c>
       <c r="I11">
-        <v>0.1965759915205419</v>
+        <v>0.2404784903431001</v>
       </c>
       <c r="J11">
-        <v>0.1965759915205419</v>
+        <v>0.2404784903431001</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.42985866666667</v>
+        <v>21.161778</v>
       </c>
       <c r="N11">
-        <v>70.28957600000001</v>
+        <v>63.485334</v>
       </c>
       <c r="O11">
-        <v>0.7379398597958302</v>
+        <v>0.3868334540024753</v>
       </c>
       <c r="P11">
-        <v>0.7379398597958301</v>
+        <v>0.3868334540024753</v>
       </c>
       <c r="Q11">
-        <v>304.1320301781441</v>
+        <v>274.6911365058961</v>
       </c>
       <c r="R11">
-        <v>2737.188271603297</v>
+        <v>2472.220228553064</v>
       </c>
       <c r="S11">
-        <v>0.145061259621895</v>
+        <v>0.09302512503272233</v>
       </c>
       <c r="T11">
-        <v>0.145061259621895</v>
+        <v>0.09302512503272234</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>21.95152166666666</v>
+        <v>15.25749233333333</v>
       </c>
       <c r="H12">
-        <v>65.85456499999999</v>
+        <v>45.772477</v>
       </c>
       <c r="I12">
-        <v>0.3324318400054526</v>
+        <v>0.2826616599952471</v>
       </c>
       <c r="J12">
-        <v>0.3324318400054526</v>
+        <v>0.2826616599952471</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.1788416666666666</v>
+        <v>0.060105</v>
       </c>
       <c r="N12">
-        <v>0.5365249999999999</v>
+        <v>0.180315</v>
       </c>
       <c r="O12">
-        <v>0.005632743940253071</v>
+        <v>0.001098708471132188</v>
       </c>
       <c r="P12">
-        <v>0.00563274394025307</v>
+        <v>0.001098708471132188</v>
       </c>
       <c r="Q12">
-        <v>3.92584672073611</v>
+        <v>0.917051576695</v>
       </c>
       <c r="R12">
-        <v>35.33262048662499</v>
+        <v>8.253464190255</v>
       </c>
       <c r="S12">
-        <v>0.001872503432337892</v>
+        <v>0.0003105627603010643</v>
       </c>
       <c r="T12">
-        <v>0.001872503432337891</v>
+        <v>0.0003105627603010643</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>21.95152166666666</v>
+        <v>15.25749233333333</v>
       </c>
       <c r="H13">
-        <v>65.85456499999999</v>
+        <v>45.772477</v>
       </c>
       <c r="I13">
-        <v>0.3324318400054526</v>
+        <v>0.2826616599952471</v>
       </c>
       <c r="J13">
-        <v>0.3324318400054526</v>
+        <v>0.2826616599952471</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>0.4282</v>
       </c>
       <c r="O13">
-        <v>0.004495486613329044</v>
+        <v>0.002609139380189131</v>
       </c>
       <c r="P13">
-        <v>0.004495486613329044</v>
+        <v>0.002609139380189131</v>
       </c>
       <c r="Q13">
-        <v>3.133213859222222</v>
+        <v>2.177752739044445</v>
       </c>
       <c r="R13">
-        <v>28.198924733</v>
+        <v>19.5997746514</v>
       </c>
       <c r="S13">
-        <v>0.001494442886588855</v>
+        <v>0.0007375036683632297</v>
       </c>
       <c r="T13">
-        <v>0.001494442886588855</v>
+        <v>0.0007375036683632297</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>21.95152166666666</v>
+        <v>15.25749233333333</v>
       </c>
       <c r="H14">
-        <v>65.85456499999999</v>
+        <v>45.772477</v>
       </c>
       <c r="I14">
-        <v>0.3324318400054526</v>
+        <v>0.2826616599952471</v>
       </c>
       <c r="J14">
-        <v>0.3324318400054526</v>
+        <v>0.2826616599952471</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.674834333333334</v>
+        <v>33.23770833333333</v>
       </c>
       <c r="N14">
-        <v>23.024503</v>
+        <v>99.71312499999999</v>
       </c>
       <c r="O14">
-        <v>0.2417242994279645</v>
+        <v>0.6075792647342859</v>
       </c>
       <c r="P14">
-        <v>0.2417242994279645</v>
+        <v>0.607579264734286</v>
       </c>
       <c r="Q14">
-        <v>168.4742921562439</v>
+        <v>507.1240800734028</v>
       </c>
       <c r="R14">
-        <v>1516.268629406195</v>
+        <v>4564.116720660625</v>
       </c>
       <c r="S14">
-        <v>0.08035685363286722</v>
+        <v>0.1717393635484849</v>
       </c>
       <c r="T14">
-        <v>0.08035685363286722</v>
+        <v>0.171739363548485</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>21.95152166666666</v>
+        <v>15.25749233333333</v>
       </c>
       <c r="H15">
-        <v>65.85456499999999</v>
+        <v>45.772477</v>
       </c>
       <c r="I15">
-        <v>0.3324318400054526</v>
+        <v>0.2826616599952471</v>
       </c>
       <c r="J15">
-        <v>0.3324318400054526</v>
+        <v>0.2826616599952471</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.3240953333333333</v>
+        <v>0.1028146666666667</v>
       </c>
       <c r="N15">
-        <v>0.972286</v>
+        <v>0.3084440000000001</v>
       </c>
       <c r="O15">
-        <v>0.01020761022262317</v>
+        <v>0.001879433411917459</v>
       </c>
       <c r="P15">
-        <v>0.01020761022262317</v>
+        <v>0.00187943341191746</v>
       </c>
       <c r="Q15">
-        <v>7.114385731732222</v>
+        <v>1.568693988420889</v>
       </c>
       <c r="R15">
-        <v>64.02947158558999</v>
+        <v>14.118245895788</v>
       </c>
       <c r="S15">
-        <v>0.003393334648365089</v>
+        <v>0.00053124376806312</v>
       </c>
       <c r="T15">
-        <v>0.003393334648365089</v>
+        <v>0.0005312437680631201</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>21.95152166666666</v>
+        <v>15.25749233333333</v>
       </c>
       <c r="H16">
-        <v>65.85456499999999</v>
+        <v>45.772477</v>
       </c>
       <c r="I16">
-        <v>0.3324318400054526</v>
+        <v>0.2826616599952471</v>
       </c>
       <c r="J16">
-        <v>0.3324318400054526</v>
+        <v>0.2826616599952471</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>23.42985866666667</v>
+        <v>21.161778</v>
       </c>
       <c r="N16">
-        <v>70.28957600000001</v>
+        <v>63.485334</v>
       </c>
       <c r="O16">
-        <v>0.7379398597958302</v>
+        <v>0.3868334540024753</v>
       </c>
       <c r="P16">
-        <v>0.7379398597958301</v>
+        <v>0.3868334540024753</v>
       </c>
       <c r="Q16">
-        <v>514.3210501682712</v>
+        <v>322.875665594702</v>
       </c>
       <c r="R16">
-        <v>4628.88945151444</v>
+        <v>2905.880990352318</v>
       </c>
       <c r="S16">
-        <v>0.2453147054052936</v>
+        <v>0.1093429862500347</v>
       </c>
       <c r="T16">
-        <v>0.2453147054052935</v>
+        <v>0.1093429862500347</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.771175666666667</v>
+        <v>4.142925</v>
       </c>
       <c r="H17">
-        <v>11.313527</v>
+        <v>12.428775</v>
       </c>
       <c r="I17">
-        <v>0.057110339997863</v>
+        <v>0.07675219702895753</v>
       </c>
       <c r="J17">
-        <v>0.057110339997863</v>
+        <v>0.07675219702895753</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.1788416666666666</v>
+        <v>0.060105</v>
       </c>
       <c r="N17">
-        <v>0.5365249999999999</v>
+        <v>0.180315</v>
       </c>
       <c r="O17">
-        <v>0.005632743940253071</v>
+        <v>0.001098708471132188</v>
       </c>
       <c r="P17">
-        <v>0.00563274394025307</v>
+        <v>0.001098708471132188</v>
       </c>
       <c r="Q17">
-        <v>0.6744433415194444</v>
+        <v>0.249010507125</v>
       </c>
       <c r="R17">
-        <v>6.069990073674999</v>
+        <v>2.241094564125</v>
       </c>
       <c r="S17">
-        <v>0.0003216879215487554</v>
+        <v>8.432828905372239E-05</v>
       </c>
       <c r="T17">
-        <v>0.0003216879215487553</v>
+        <v>8.43282890537224E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.771175666666667</v>
+        <v>4.142925</v>
       </c>
       <c r="H18">
-        <v>11.313527</v>
+        <v>12.428775</v>
       </c>
       <c r="I18">
-        <v>0.057110339997863</v>
+        <v>0.07675219702895753</v>
       </c>
       <c r="J18">
-        <v>0.057110339997863</v>
+        <v>0.07675219702895753</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>0.4282</v>
       </c>
       <c r="O18">
-        <v>0.004495486613329044</v>
+        <v>0.002609139380189131</v>
       </c>
       <c r="P18">
-        <v>0.004495486613329044</v>
+        <v>0.002609139380189131</v>
       </c>
       <c r="Q18">
-        <v>0.538272473488889</v>
+        <v>0.5913334950000001</v>
       </c>
       <c r="R18">
-        <v>4.844452261400001</v>
+        <v>5.322001455000001</v>
       </c>
       <c r="S18">
-        <v>0.0002567387689430634</v>
+        <v>0.0002002571797842883</v>
       </c>
       <c r="T18">
-        <v>0.0002567387689430634</v>
+        <v>0.0002002571797842883</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.771175666666667</v>
+        <v>4.142925</v>
       </c>
       <c r="H19">
-        <v>11.313527</v>
+        <v>12.428775</v>
       </c>
       <c r="I19">
-        <v>0.057110339997863</v>
+        <v>0.07675219702895753</v>
       </c>
       <c r="J19">
-        <v>0.057110339997863</v>
+        <v>0.07675219702895753</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>7.674834333333334</v>
+        <v>33.23770833333333</v>
       </c>
       <c r="N19">
-        <v>23.024503</v>
+        <v>99.71312499999999</v>
       </c>
       <c r="O19">
-        <v>0.2417242994279645</v>
+        <v>0.6075792647342859</v>
       </c>
       <c r="P19">
-        <v>0.2417242994279645</v>
+        <v>0.607579264734286</v>
       </c>
       <c r="Q19">
-        <v>28.94314848356456</v>
+        <v>137.701332796875</v>
       </c>
       <c r="R19">
-        <v>260.488336352081</v>
+        <v>1239.311995171875</v>
       </c>
       <c r="S19">
-        <v>0.0138049569260763</v>
+        <v>0.04663304343759506</v>
       </c>
       <c r="T19">
-        <v>0.01380495692607629</v>
+        <v>0.04663304343759506</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.771175666666667</v>
+        <v>4.142925</v>
       </c>
       <c r="H20">
-        <v>11.313527</v>
+        <v>12.428775</v>
       </c>
       <c r="I20">
-        <v>0.057110339997863</v>
+        <v>0.07675219702895753</v>
       </c>
       <c r="J20">
-        <v>0.057110339997863</v>
+        <v>0.07675219702895753</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.3240953333333333</v>
+        <v>0.1028146666666667</v>
       </c>
       <c r="N20">
-        <v>0.972286</v>
+        <v>0.3084440000000001</v>
       </c>
       <c r="O20">
-        <v>0.01020761022262317</v>
+        <v>0.001879433411917459</v>
       </c>
       <c r="P20">
-        <v>0.01020761022262317</v>
+        <v>0.00187943341191746</v>
       </c>
       <c r="Q20">
-        <v>1.222220434746889</v>
+        <v>0.4259534529</v>
       </c>
       <c r="R20">
-        <v>10.999983912722</v>
+        <v>3.833581076100001</v>
       </c>
       <c r="S20">
-        <v>0.0005829600903796714</v>
+        <v>0.0001442506435342947</v>
       </c>
       <c r="T20">
-        <v>0.0005829600903796714</v>
+        <v>0.0001442506435342948</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.771175666666667</v>
+        <v>4.142925</v>
       </c>
       <c r="H21">
-        <v>11.313527</v>
+        <v>12.428775</v>
       </c>
       <c r="I21">
-        <v>0.057110339997863</v>
+        <v>0.07675219702895753</v>
       </c>
       <c r="J21">
-        <v>0.057110339997863</v>
+        <v>0.07675219702895753</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>23.42985866666667</v>
+        <v>21.161778</v>
       </c>
       <c r="N21">
-        <v>70.28957600000001</v>
+        <v>63.485334</v>
       </c>
       <c r="O21">
-        <v>0.7379398597958302</v>
+        <v>0.3868334540024753</v>
       </c>
       <c r="P21">
-        <v>0.7379398597958301</v>
+        <v>0.3868334540024753</v>
       </c>
       <c r="Q21">
-        <v>88.35811287717246</v>
+        <v>87.67165912065001</v>
       </c>
       <c r="R21">
-        <v>795.2230158945522</v>
+        <v>789.0449320858501</v>
       </c>
       <c r="S21">
-        <v>0.04214399629091522</v>
+        <v>0.02969031747899016</v>
       </c>
       <c r="T21">
-        <v>0.0421439962909152</v>
+        <v>0.02969031747899016</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,46 +1780,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>19.402266</v>
+        <v>13.51654933333334</v>
       </c>
       <c r="H22">
-        <v>58.20679800000001</v>
+        <v>40.549648</v>
       </c>
       <c r="I22">
-        <v>0.2938261449295991</v>
+        <v>0.2504087951347477</v>
       </c>
       <c r="J22">
-        <v>0.2938261449295991</v>
+        <v>0.2504087951347477</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.1788416666666666</v>
+        <v>0.060105</v>
       </c>
       <c r="N22">
-        <v>0.5365249999999999</v>
+        <v>0.180315</v>
       </c>
       <c r="O22">
-        <v>0.005632743940253071</v>
+        <v>0.001098708471132188</v>
       </c>
       <c r="P22">
-        <v>0.00563274394025307</v>
+        <v>0.001098708471132188</v>
       </c>
       <c r="Q22">
-        <v>3.46993358855</v>
+        <v>0.8124121976800001</v>
       </c>
       <c r="R22">
-        <v>31.22940229695</v>
+        <v>7.311709779120001</v>
       </c>
       <c r="S22">
-        <v>0.00165504743734012</v>
+        <v>0.0002751262644605519</v>
       </c>
       <c r="T22">
-        <v>0.001655047437340119</v>
+        <v>0.000275126264460552</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>19.402266</v>
+        <v>13.51654933333334</v>
       </c>
       <c r="H23">
-        <v>58.20679800000001</v>
+        <v>40.549648</v>
       </c>
       <c r="I23">
-        <v>0.2938261449295991</v>
+        <v>0.2504087951347477</v>
       </c>
       <c r="J23">
-        <v>0.2938261449295991</v>
+        <v>0.2504087951347477</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>0.4282</v>
       </c>
       <c r="O23">
-        <v>0.004495486613329044</v>
+        <v>0.002609139380189131</v>
       </c>
       <c r="P23">
-        <v>0.004495486613329044</v>
+        <v>0.002609139380189131</v>
       </c>
       <c r="Q23">
-        <v>2.769350100400001</v>
+        <v>1.929262141511112</v>
       </c>
       <c r="R23">
-        <v>24.9241509036</v>
+        <v>17.3633592736</v>
       </c>
       <c r="S23">
-        <v>0.001320891501177092</v>
+        <v>0.0006533514485317825</v>
       </c>
       <c r="T23">
-        <v>0.001320891501177092</v>
+        <v>0.0006533514485317825</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>19.402266</v>
+        <v>13.51654933333334</v>
       </c>
       <c r="H24">
-        <v>58.20679800000001</v>
+        <v>40.549648</v>
       </c>
       <c r="I24">
-        <v>0.2938261449295991</v>
+        <v>0.2504087951347477</v>
       </c>
       <c r="J24">
-        <v>0.2938261449295991</v>
+        <v>0.2504087951347477</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.674834333333334</v>
+        <v>33.23770833333333</v>
       </c>
       <c r="N24">
-        <v>23.024503</v>
+        <v>99.71312499999999</v>
       </c>
       <c r="O24">
-        <v>0.2417242994279645</v>
+        <v>0.6075792647342859</v>
       </c>
       <c r="P24">
-        <v>0.2417242994279645</v>
+        <v>0.607579264734286</v>
       </c>
       <c r="Q24">
-        <v>148.909177241266</v>
+        <v>449.2591244144445</v>
       </c>
       <c r="R24">
-        <v>1340.182595171394</v>
+        <v>4043.33211973</v>
       </c>
       <c r="S24">
-        <v>0.07102491903672691</v>
+        <v>0.1521431916309684</v>
       </c>
       <c r="T24">
-        <v>0.07102491903672691</v>
+        <v>0.1521431916309685</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>19.402266</v>
+        <v>13.51654933333334</v>
       </c>
       <c r="H25">
-        <v>58.20679800000001</v>
+        <v>40.549648</v>
       </c>
       <c r="I25">
-        <v>0.2938261449295991</v>
+        <v>0.2504087951347477</v>
       </c>
       <c r="J25">
-        <v>0.2938261449295991</v>
+        <v>0.2504087951347477</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.3240953333333333</v>
+        <v>0.1028146666666667</v>
       </c>
       <c r="N25">
-        <v>0.972286</v>
+        <v>0.3084440000000001</v>
       </c>
       <c r="O25">
-        <v>0.01020761022262317</v>
+        <v>0.001879433411917459</v>
       </c>
       <c r="P25">
-        <v>0.01020761022262317</v>
+        <v>0.00187943341191746</v>
       </c>
       <c r="Q25">
-        <v>6.288183866692001</v>
+        <v>1.389699514190223</v>
       </c>
       <c r="R25">
-        <v>56.593654800228</v>
+        <v>12.507295627712</v>
       </c>
       <c r="S25">
-        <v>0.002999262760657333</v>
+        <v>0.0004706266562142389</v>
       </c>
       <c r="T25">
-        <v>0.002999262760657333</v>
+        <v>0.000470626656214239</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>19.402266</v>
+        <v>13.51654933333334</v>
       </c>
       <c r="H26">
-        <v>58.20679800000001</v>
+        <v>40.549648</v>
       </c>
       <c r="I26">
-        <v>0.2938261449295991</v>
+        <v>0.2504087951347477</v>
       </c>
       <c r="J26">
-        <v>0.2938261449295991</v>
+        <v>0.2504087951347477</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>23.42985866666667</v>
+        <v>21.161778</v>
       </c>
       <c r="N26">
-        <v>70.28957600000001</v>
+        <v>63.485334</v>
       </c>
       <c r="O26">
-        <v>0.7379398597958302</v>
+        <v>0.3868334540024753</v>
       </c>
       <c r="P26">
-        <v>0.7379398597958301</v>
+        <v>0.3868334540024753</v>
       </c>
       <c r="Q26">
-        <v>454.5923501930721</v>
+        <v>286.0342163180481</v>
       </c>
       <c r="R26">
-        <v>4091.331151737649</v>
+        <v>2574.307946862432</v>
       </c>
       <c r="S26">
-        <v>0.2168260241936976</v>
+        <v>0.09686649913457267</v>
       </c>
       <c r="T26">
-        <v>0.2168260241936976</v>
+        <v>0.09686649913457268</v>
       </c>
     </row>
   </sheetData>
